--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-2.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-2.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>ims/cs/baidu/cust/pieChart.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,15 +745,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1064,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:D16"/>
+  <dimension ref="D1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,53 +1090,66 @@
     <col min="6" max="6" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4" ht="3" customHeight="1">
+    <row r="1" spans="4:9" ht="3" customHeight="1">
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="4:4">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="4:9">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="4:9">
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="4:9">
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="4:9">
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="4:9">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="4:9">
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="4:9">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="4:9">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="4:9">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="4:9">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="4:9">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="4:9">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="4:9">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="4:9">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="4:9">
       <c r="D16" s="5"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,7 +1420,7 @@
         <v>其他</v>
       </c>
       <c r="D11" s="3">
-        <f>$E3</f>
+        <f>IF($E3&lt;0,0,$E3)</f>
         <v>11</v>
       </c>
     </row>
